--- a/Data/finance/credit.xlsx
+++ b/Data/finance/credit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/EconomicCycle/Data/finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4545D1C-12F0-554F-9BDA-DA0380A03427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D633FCB0-2E73-7D45-98AE-BB9631CEB422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="2200" windowWidth="27640" windowHeight="16940" xr2:uid="{18D858D4-4F85-484C-9C42-04C9EFDDDF9E}"/>
   </bookViews>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:K288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
